--- a/import products in po.xlsx
+++ b/import products in po.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\albert_warehouse_erp_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\albert_warehouse_erp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>product_id</t>
   </si>
@@ -38,44 +38,26 @@
     <t>product_condition</t>
   </si>
   <si>
-    <t>is_tested</t>
-  </si>
-  <si>
-    <t>is_wiped</t>
-  </si>
-  <si>
-    <t>is_imaged</t>
-  </si>
-  <si>
-    <t>warranty_period_in_days</t>
-  </si>
-  <si>
-    <t>product_po_desc</t>
-  </si>
-  <si>
-    <t>product_po_desc1</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>IPAD6-32W-GY</t>
   </si>
   <si>
     <t>iPad2WiFi32GBSpaceGray</t>
   </si>
   <si>
-    <t>product_po_desc2</t>
+    <t>product_status</t>
+  </si>
+  <si>
+    <t>Tested/Graded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +73,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -116,10 +104,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,27 +389,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.68359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5234375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="13.68359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.89453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,24 +419,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -460,27 +433,15 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
@@ -489,22 +450,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1">
-        <v>31</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
